--- a/data/Subset1_WithDialogActs/Math JP2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math JP2 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4209,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4669,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5089,12 +5089,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5593,12 +5593,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6185,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6437,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6983,12 +6983,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7781,12 +7781,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7991,12 +7991,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8117,12 +8117,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8159,12 +8159,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8621,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8705,12 +8705,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8747,12 +8747,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9963,12 +9963,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10383,12 +10383,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10635,12 +10635,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10761,12 +10761,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10803,12 +10803,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10887,12 +10887,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12315,12 +12315,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12441,12 +12441,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13071,12 +13071,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13155,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13197,12 +13197,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13239,12 +13239,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13281,12 +13281,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13323,12 +13323,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13407,12 +13407,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13449,12 +13449,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13491,12 +13491,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13533,12 +13533,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13869,12 +13869,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13953,12 +13953,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14709,12 +14709,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14751,12 +14751,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14961,12 +14961,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15381,12 +15381,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15633,12 +15633,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16137,12 +16137,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16599,12 +16599,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16767,12 +16767,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17439,12 +17439,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17523,12 +17523,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17565,12 +17565,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17607,12 +17607,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17649,12 +17649,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17691,12 +17691,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17733,12 +17733,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18153,12 +18153,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18321,12 +18321,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18447,12 +18447,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18573,12 +18573,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18615,12 +18615,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18951,12 +18951,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19077,12 +19077,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19203,12 +19203,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19329,12 +19329,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19875,12 +19875,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19917,12 +19917,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20085,12 +20085,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20253,12 +20253,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20379,12 +20379,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20715,12 +20715,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21135,12 +21135,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21261,12 +21261,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21303,12 +21303,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21975,12 +21975,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22437,12 +22437,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22563,12 +22563,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22647,12 +22647,12 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22941,12 +22941,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23319,12 +23319,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23739,12 +23739,12 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23865,12 +23865,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23907,12 +23907,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23949,12 +23949,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23991,12 +23991,12 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24579,12 +24579,12 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24621,12 +24621,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24873,12 +24873,12 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25167,12 +25167,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25755,12 +25755,12 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25965,12 +25965,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26007,12 +26007,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26133,12 +26133,12 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26259,12 +26259,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26301,12 +26301,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26553,12 +26553,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26637,12 +26637,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26679,12 +26679,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26805,12 +26805,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26973,12 +26973,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27645,12 +27645,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27981,12 +27981,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28023,12 +28023,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28065,12 +28065,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28275,12 +28275,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28779,12 +28779,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29241,12 +29241,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29871,12 +29871,12 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30417,12 +30417,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31089,12 +31089,12 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31131,12 +31131,12 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31173,12 +31173,12 @@
       <c r="H732" t="inlineStr"/>
       <c r="I732" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31341,12 +31341,12 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31383,12 +31383,12 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31551,12 +31551,12 @@
       <c r="H741" t="inlineStr"/>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31677,12 +31677,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31761,12 +31761,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32181,12 +32181,12 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32223,12 +32223,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32391,12 +32391,12 @@
       <c r="H761" t="inlineStr"/>
       <c r="I761" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32643,12 +32643,12 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32895,12 +32895,12 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33105,12 +33105,12 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33315,12 +33315,12 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33525,12 +33525,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33651,12 +33651,12 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33987,12 +33987,12 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34701,12 +34701,12 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35205,12 +35205,12 @@
       <c r="H828" t="inlineStr"/>
       <c r="I828" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35667,12 +35667,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36255,12 +36255,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36297,12 +36297,12 @@
       <c r="H854" t="inlineStr"/>
       <c r="I854" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36423,12 +36423,12 @@
       <c r="H857" t="inlineStr"/>
       <c r="I857" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37473,12 +37473,12 @@
       <c r="H882" t="inlineStr"/>
       <c r="I882" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37683,12 +37683,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37809,12 +37809,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37893,12 +37893,12 @@
       <c r="H892" t="inlineStr"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38565,12 +38565,12 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39069,12 +39069,12 @@
       <c r="H920" t="inlineStr"/>
       <c r="I920" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39111,12 +39111,12 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39195,12 +39195,12 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39367,12 +39367,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39409,12 +39409,12 @@
       <c r="H928" t="inlineStr"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39493,12 +39493,12 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39833,12 +39833,12 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40085,12 +40085,12 @@
       <c r="H944" t="inlineStr"/>
       <c r="I944" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40169,12 +40169,12 @@
       <c r="H946" t="inlineStr"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40211,12 +40211,12 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40631,12 +40631,12 @@
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40673,12 +40673,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40715,12 +40715,12 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40757,12 +40757,12 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41009,12 +41009,12 @@
       <c r="H966" t="inlineStr"/>
       <c r="I966" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41051,12 +41051,12 @@
       <c r="H967" t="inlineStr"/>
       <c r="I967" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41261,12 +41261,12 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41597,12 +41597,12 @@
       <c r="H980" t="inlineStr"/>
       <c r="I980" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42017,12 +42017,12 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42143,12 +42143,12 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -42647,12 +42647,12 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42731,12 +42731,12 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42857,12 +42857,12 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42899,12 +42899,12 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43235,12 +43235,12 @@
       <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43277,12 +43277,12 @@
       <c r="H1020" t="inlineStr"/>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43739,12 +43739,12 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44117,12 +44117,12 @@
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44159,12 +44159,12 @@
       <c r="H1041" t="inlineStr"/>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -45041,12 +45041,12 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45083,12 +45083,12 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45335,12 +45335,12 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45419,12 +45419,12 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45545,12 +45545,12 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45965,12 +45965,12 @@
       <c r="H1084" t="inlineStr"/>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -46133,12 +46133,12 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46301,12 +46301,12 @@
       <c r="H1092" t="inlineStr"/>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46553,12 +46553,12 @@
       <c r="H1098" t="inlineStr"/>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -47181,12 +47181,12 @@
       <c r="H1113" t="inlineStr"/>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47643,12 +47643,12 @@
       <c r="H1124" t="inlineStr"/>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47811,12 +47811,12 @@
       <c r="H1128" t="inlineStr"/>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47937,12 +47937,12 @@
       <c r="H1131" t="inlineStr"/>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -48189,12 +48189,12 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48273,12 +48273,12 @@
       <c r="H1139" t="inlineStr"/>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48441,12 +48441,12 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48525,12 +48525,12 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -48609,12 +48609,12 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48777,12 +48777,12 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48861,12 +48861,12 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49113,12 +49113,12 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49281,12 +49281,12 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49785,12 +49785,12 @@
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -49953,12 +49953,12 @@
       <c r="H1179" t="inlineStr"/>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50247,12 +50247,12 @@
       <c r="H1186" t="inlineStr"/>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50373,12 +50373,12 @@
       <c r="H1189" t="inlineStr"/>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50583,12 +50583,12 @@
       <c r="H1194" t="inlineStr"/>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51633,12 +51633,12 @@
       <c r="H1219" t="inlineStr"/>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51969,12 +51969,12 @@
       <c r="H1227" t="inlineStr"/>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52557,12 +52557,12 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -52683,12 +52683,12 @@
       <c r="H1244" t="inlineStr"/>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -53103,12 +53103,12 @@
       <c r="H1254" t="inlineStr"/>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53187,12 +53187,12 @@
       <c r="H1256" t="inlineStr"/>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -53313,12 +53313,12 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -53355,12 +53355,12 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -53397,12 +53397,12 @@
       <c r="H1261" t="inlineStr"/>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1261" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -53523,12 +53523,12 @@
       <c r="H1264" t="inlineStr"/>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1264" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53649,12 +53649,12 @@
       <c r="H1267" t="inlineStr"/>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -54279,12 +54279,12 @@
       <c r="H1282" t="inlineStr"/>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -54321,12 +54321,12 @@
       <c r="H1283" t="inlineStr"/>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54867,12 +54867,12 @@
       <c r="H1296" t="inlineStr"/>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -55245,12 +55245,12 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1305" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -55497,12 +55497,12 @@
       <c r="H1311" t="inlineStr"/>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -55623,12 +55623,12 @@
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -55665,12 +55665,12 @@
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -55791,12 +55791,12 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -56043,12 +56043,12 @@
       <c r="H1324" t="inlineStr"/>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -56379,12 +56379,12 @@
       </c>
       <c r="I1332" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1332" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56505,12 +56505,12 @@
       <c r="H1335" t="inlineStr"/>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56631,12 +56631,12 @@
       <c r="H1338" t="inlineStr"/>
       <c r="I1338" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1338" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56799,12 +56799,12 @@
       <c r="H1342" t="inlineStr"/>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -56883,12 +56883,12 @@
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -56925,12 +56925,12 @@
       </c>
       <c r="I1345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -56967,12 +56967,12 @@
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -57093,12 +57093,12 @@
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1349" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -57303,12 +57303,12 @@
       </c>
       <c r="I1354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -57639,12 +57639,12 @@
       <c r="H1362" t="inlineStr"/>
       <c r="I1362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -57681,12 +57681,12 @@
       <c r="H1363" t="inlineStr"/>
       <c r="I1363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -58017,12 +58017,12 @@
       <c r="H1371" t="inlineStr"/>
       <c r="I1371" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1371" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58647,12 +58647,12 @@
       <c r="H1386" t="inlineStr"/>
       <c r="I1386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -58731,12 +58731,12 @@
       <c r="H1388" t="inlineStr"/>
       <c r="I1388" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1388" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -59025,12 +59025,12 @@
       <c r="H1395" t="inlineStr"/>
       <c r="I1395" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1395" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -59319,12 +59319,12 @@
       <c r="H1402" t="inlineStr"/>
       <c r="I1402" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1402" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -59361,12 +59361,12 @@
       <c r="H1403" t="inlineStr"/>
       <c r="I1403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -59739,12 +59739,12 @@
       <c r="H1412" t="inlineStr"/>
       <c r="I1412" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -59823,12 +59823,12 @@
       <c r="H1414" t="inlineStr"/>
       <c r="I1414" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1414" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -60201,12 +60201,12 @@
       </c>
       <c r="I1423" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1423" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -60243,12 +60243,12 @@
       </c>
       <c r="I1424" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -60367,12 +60367,12 @@
       </c>
       <c r="I1427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -60493,12 +60493,12 @@
       <c r="H1430" t="inlineStr"/>
       <c r="I1430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -60619,12 +60619,12 @@
       <c r="H1433" t="inlineStr"/>
       <c r="I1433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -60913,12 +60913,12 @@
       <c r="H1440" t="inlineStr"/>
       <c r="I1440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -61207,12 +61207,12 @@
       </c>
       <c r="I1447" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1447" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61333,12 +61333,12 @@
       <c r="H1450" t="inlineStr"/>
       <c r="I1450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -61585,12 +61585,12 @@
       <c r="H1456" t="inlineStr"/>
       <c r="I1456" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1456" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61627,12 +61627,12 @@
       <c r="H1457" t="inlineStr"/>
       <c r="I1457" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1457" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61879,12 +61879,12 @@
       <c r="H1463" t="inlineStr"/>
       <c r="I1463" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1463" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61921,12 +61921,12 @@
       <c r="H1464" t="inlineStr"/>
       <c r="I1464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -62089,12 +62089,12 @@
       <c r="H1468" t="inlineStr"/>
       <c r="I1468" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1468" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -62887,12 +62887,12 @@
       <c r="H1487" t="inlineStr"/>
       <c r="I1487" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1487" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -62929,12 +62929,12 @@
       <c r="H1488" t="inlineStr"/>
       <c r="I1488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -62971,12 +62971,12 @@
       <c r="H1489" t="inlineStr"/>
       <c r="I1489" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1489" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -63139,12 +63139,12 @@
       </c>
       <c r="I1493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -63349,12 +63349,12 @@
       <c r="H1498" t="inlineStr"/>
       <c r="I1498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -63685,12 +63685,12 @@
       <c r="H1506" t="inlineStr"/>
       <c r="I1506" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1506" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -63727,12 +63727,12 @@
       </c>
       <c r="I1507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -63769,12 +63769,12 @@
       </c>
       <c r="I1508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -63811,12 +63811,12 @@
       <c r="H1509" t="inlineStr"/>
       <c r="I1509" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1509" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -63895,12 +63895,12 @@
       <c r="H1511" t="inlineStr"/>
       <c r="I1511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -64105,12 +64105,12 @@
       <c r="H1516" t="inlineStr"/>
       <c r="I1516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -64823,12 +64823,12 @@
       <c r="H1533" t="inlineStr"/>
       <c r="I1533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -64991,12 +64991,12 @@
       <c r="H1537" t="inlineStr"/>
       <c r="I1537" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1537" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -65579,12 +65579,12 @@
       <c r="H1551" t="inlineStr"/>
       <c r="I1551" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1551" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -65999,12 +65999,12 @@
       <c r="H1561" t="inlineStr"/>
       <c r="I1561" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1561" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -66209,12 +66209,12 @@
       </c>
       <c r="I1566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66293,12 +66293,12 @@
       </c>
       <c r="I1568" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1568" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -66377,12 +66377,12 @@
       </c>
       <c r="I1570" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1570" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -66461,12 +66461,12 @@
       <c r="H1572" t="inlineStr"/>
       <c r="I1572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66503,12 +66503,12 @@
       <c r="H1573" t="inlineStr"/>
       <c r="I1573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -66545,12 +66545,12 @@
       <c r="H1574" t="inlineStr"/>
       <c r="I1574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -66629,12 +66629,12 @@
       <c r="H1576" t="inlineStr"/>
       <c r="I1576" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1576" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -66713,12 +66713,12 @@
       <c r="H1578" t="inlineStr"/>
       <c r="I1578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -66797,12 +66797,12 @@
       </c>
       <c r="I1580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -66923,12 +66923,12 @@
       <c r="H1583" t="inlineStr"/>
       <c r="I1583" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1583" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -67091,12 +67091,12 @@
       </c>
       <c r="I1587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -67133,12 +67133,12 @@
       <c r="H1588" t="inlineStr"/>
       <c r="I1588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -67259,12 +67259,12 @@
       </c>
       <c r="I1591" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1591" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -67301,12 +67301,12 @@
       </c>
       <c r="I1592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -67469,12 +67469,12 @@
       <c r="H1596" t="inlineStr"/>
       <c r="I1596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -67553,12 +67553,12 @@
       <c r="H1598" t="inlineStr"/>
       <c r="I1598" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1598" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67637,12 +67637,12 @@
       <c r="H1600" t="inlineStr"/>
       <c r="I1600" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1600" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68183,12 +68183,12 @@
       <c r="H1613" t="inlineStr"/>
       <c r="I1613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -68267,12 +68267,12 @@
       </c>
       <c r="I1615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -68351,12 +68351,12 @@
       </c>
       <c r="I1617" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1617" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -68477,12 +68477,12 @@
       </c>
       <c r="I1620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -68561,12 +68561,12 @@
       <c r="H1622" t="inlineStr"/>
       <c r="I1622" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1622" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -68771,12 +68771,12 @@
       <c r="H1627" t="inlineStr"/>
       <c r="I1627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -68897,12 +68897,12 @@
       <c r="H1630" t="inlineStr"/>
       <c r="I1630" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1630" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68939,12 +68939,12 @@
       <c r="H1631" t="inlineStr"/>
       <c r="I1631" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1631" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -68981,12 +68981,12 @@
       </c>
       <c r="I1632" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1632" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69065,12 +69065,12 @@
       </c>
       <c r="I1634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69233,12 +69233,12 @@
       <c r="H1638" t="inlineStr"/>
       <c r="I1638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -69275,12 +69275,12 @@
       </c>
       <c r="I1639" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1639" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69443,12 +69443,12 @@
       </c>
       <c r="I1643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69569,12 +69569,12 @@
       <c r="H1646" t="inlineStr"/>
       <c r="I1646" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1646" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69695,12 +69695,12 @@
       </c>
       <c r="I1649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -69905,12 +69905,12 @@
       </c>
       <c r="I1654" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1654" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69947,12 +69947,12 @@
       <c r="H1655" t="inlineStr"/>
       <c r="I1655" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1655" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -70199,12 +70199,12 @@
       <c r="H1661" t="inlineStr"/>
       <c r="I1661" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1661" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -70409,12 +70409,12 @@
       <c r="H1666" t="inlineStr"/>
       <c r="I1666" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1666" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -70577,12 +70577,12 @@
       </c>
       <c r="I1670" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1670" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -70661,12 +70661,12 @@
       <c r="H1672" t="inlineStr"/>
       <c r="I1672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70871,12 +70871,12 @@
       <c r="H1677" t="inlineStr"/>
       <c r="I1677" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1677" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -70997,12 +70997,12 @@
       </c>
       <c r="I1680" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1680" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -71333,12 +71333,12 @@
       <c r="H1688" t="inlineStr"/>
       <c r="I1688" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1688" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -71417,12 +71417,12 @@
       <c r="H1690" t="inlineStr"/>
       <c r="I1690" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1690" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -71543,12 +71543,12 @@
       </c>
       <c r="I1693" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1693" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -71585,12 +71585,12 @@
       <c r="H1694" t="inlineStr"/>
       <c r="I1694" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1694" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -71711,12 +71711,12 @@
       </c>
       <c r="I1697" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1697" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -71921,12 +71921,12 @@
       </c>
       <c r="I1702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -72215,12 +72215,12 @@
       <c r="H1709" t="inlineStr"/>
       <c r="I1709" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1709" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -72257,12 +72257,12 @@
       <c r="H1710" t="inlineStr"/>
       <c r="I1710" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1710" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -72341,12 +72341,12 @@
       <c r="H1712" t="inlineStr"/>
       <c r="I1712" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1712" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -72593,12 +72593,12 @@
       <c r="H1718" t="inlineStr"/>
       <c r="I1718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -72845,12 +72845,12 @@
       </c>
       <c r="I1724" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1724" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73097,12 +73097,12 @@
       </c>
       <c r="I1730" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1730" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73139,12 +73139,12 @@
       </c>
       <c r="I1731" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1731" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73181,12 +73181,12 @@
       </c>
       <c r="I1732" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1732" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73265,12 +73265,12 @@
       </c>
       <c r="I1734" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1734" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73685,12 +73685,12 @@
       <c r="H1744" t="inlineStr"/>
       <c r="I1744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -73895,12 +73895,12 @@
       </c>
       <c r="I1749" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1749" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -73937,12 +73937,12 @@
       </c>
       <c r="I1750" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1750" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74021,12 +74021,12 @@
       </c>
       <c r="I1752" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1752" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -74105,12 +74105,12 @@
       <c r="H1754" t="inlineStr"/>
       <c r="I1754" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1754" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -74273,12 +74273,12 @@
       <c r="H1758" t="inlineStr"/>
       <c r="I1758" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1758" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74315,12 +74315,12 @@
       <c r="H1759" t="inlineStr"/>
       <c r="I1759" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1759" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74357,12 +74357,12 @@
       <c r="H1760" t="inlineStr"/>
       <c r="I1760" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1760" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74777,12 +74777,12 @@
       <c r="H1770" t="inlineStr"/>
       <c r="I1770" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1770" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -75113,12 +75113,12 @@
       <c r="H1778" t="inlineStr"/>
       <c r="I1778" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1778" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -75239,12 +75239,12 @@
       <c r="H1781" t="inlineStr"/>
       <c r="I1781" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1781" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -75533,12 +75533,12 @@
       <c r="H1788" t="inlineStr"/>
       <c r="I1788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -75953,12 +75953,12 @@
       <c r="H1798" t="inlineStr"/>
       <c r="I1798" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1798" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -76163,12 +76163,12 @@
       </c>
       <c r="I1803" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1803" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -76457,12 +76457,12 @@
       <c r="H1810" t="inlineStr"/>
       <c r="I1810" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1810" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -76541,12 +76541,12 @@
       <c r="H1812" t="inlineStr"/>
       <c r="I1812" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1812" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -76793,12 +76793,12 @@
       <c r="H1818" t="inlineStr"/>
       <c r="I1818" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1818" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -77003,12 +77003,12 @@
       </c>
       <c r="I1823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -77129,12 +77129,12 @@
       <c r="H1826" t="inlineStr"/>
       <c r="I1826" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1826" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -77171,12 +77171,12 @@
       </c>
       <c r="I1827" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1827" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -77759,12 +77759,12 @@
       <c r="H1841" t="inlineStr"/>
       <c r="I1841" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1841" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -77967,12 +77967,12 @@
       <c r="H1846" t="inlineStr"/>
       <c r="I1846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -78429,12 +78429,12 @@
       <c r="H1857" t="inlineStr"/>
       <c r="I1857" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1857" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -78933,12 +78933,12 @@
       <c r="H1869" t="inlineStr"/>
       <c r="I1869" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1869" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -78975,12 +78975,12 @@
       <c r="H1870" t="inlineStr"/>
       <c r="I1870" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1870" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -79059,12 +79059,12 @@
       <c r="H1872" t="inlineStr"/>
       <c r="I1872" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1872" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -79101,12 +79101,12 @@
       <c r="H1873" t="inlineStr"/>
       <c r="I1873" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1873" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -79143,12 +79143,12 @@
       <c r="H1874" t="inlineStr"/>
       <c r="I1874" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1874" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -79185,12 +79185,12 @@
       <c r="H1875" t="inlineStr"/>
       <c r="I1875" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1875" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -80319,12 +80319,12 @@
       </c>
       <c r="I1902" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1902" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -80361,12 +80361,12 @@
       <c r="H1903" t="inlineStr"/>
       <c r="I1903" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1903" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -80529,12 +80529,12 @@
       <c r="H1907" t="inlineStr"/>
       <c r="I1907" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1907" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -80697,12 +80697,12 @@
       </c>
       <c r="I1911" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1911" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -80865,12 +80865,12 @@
       <c r="H1915" t="inlineStr"/>
       <c r="I1915" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1915" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -81033,12 +81033,12 @@
       </c>
       <c r="I1919" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1919" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -81159,12 +81159,12 @@
       <c r="H1922" t="inlineStr"/>
       <c r="I1922" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1922" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -81285,12 +81285,12 @@
       <c r="H1925" t="inlineStr"/>
       <c r="I1925" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1925" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -81327,12 +81327,12 @@
       </c>
       <c r="I1926" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1926" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -81831,12 +81831,12 @@
       <c r="H1938" t="inlineStr"/>
       <c r="I1938" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1938" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -82079,12 +82079,12 @@
       </c>
       <c r="I1944" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1944" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -82373,12 +82373,12 @@
       </c>
       <c r="I1951" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1951" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -82415,12 +82415,12 @@
       </c>
       <c r="I1952" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1952" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
